--- a/docs/rr-plandefinition.xlsx
+++ b/docs/rr-plandefinition.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$159</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$149</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5659" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5303" uniqueCount="686">
   <si>
     <t>Path</t>
   </si>
@@ -544,7 +544,7 @@
     <t>PlanDefinition.publisher</t>
   </si>
   <si>
-    <t>Authoring Agency Name</t>
+    <t>Authoring agency name</t>
   </si>
   <si>
     <t>The name of the PHA that authored reporting specifications in the PHA system (or its intermediary).</t>
@@ -596,17 +596,17 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>publisherCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://fhir.hl7.org/us/ecr/StructureDefinition/extension-publisher-code}
+    <t>publisherReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://fhir.hl7.org/us/ecr/StructureDefinition/extension-publisher-reference}
 </t>
   </si>
   <si>
-    <t>Authoring Agency Code</t>
-  </si>
-  <si>
-    <t>A code indicating the PHA that authored reporting  specifications in the PHA system (or its intermediary).</t>
+    <t>Authoring agency reference</t>
+  </si>
+  <si>
+    <t>A reference to organization (for example, the PHA) that authored reporting  specifications in the PHA system (or its intermediary).</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -617,23 +617,7 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>RR.authoringAgency.code</t>
-  </si>
-  <si>
-    <t>publisherDescription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://fhir.hl7.org/us/ecr/StructureDefinition/extension-organization-description}
-</t>
-  </si>
-  <si>
-    <t>Authoring Agency Description</t>
-  </si>
-  <si>
-    <t>The description of the PHA that authored reporting  specifications in the PHA system (or its intermediary) .   This element includes contact information such as telephone, fax, email, URL for the PHA that authored reporting specifications in the PHA system (or its intermediary).</t>
-  </si>
-  <si>
-    <t>RR.authoringAgency.description</t>
+    <t>RR.authoringAgency.identifier</t>
   </si>
   <si>
     <t>PlanDefinition.publisher.value</t>
@@ -850,124 +834,16 @@
 </t>
   </si>
   <si>
-    <t>Authoring Agency Contact Information</t>
-  </si>
-  <si>
-    <t>Contact information such as telephone, fax, email, URL for the PHA that authored reporting specifications in the PHA system (or its intermediary).</t>
+    <t>Contact details for the publisher</t>
+  </si>
+  <si>
+    <t>Contact details to assist a user in finding and communicating with the publisher.</t>
   </si>
   <si>
     <t>May be a web site, an email address, a telephone number, etc.</t>
   </si>
   <si>
-    <t>RR.authoringAgency.contactInformation</t>
-  </si>
-  <si>
     <t>Definition.contact</t>
-  </si>
-  <si>
-    <t>PlanDefinition.contact.id</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>PlanDefinition.contact.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>contactAddress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://fhir.hl7.org/us/ecr/StructureDefinition/extension-contact-address}
-</t>
-  </si>
-  <si>
-    <t>Authoring Agency Address Information</t>
-  </si>
-  <si>
-    <t>The physical address of the PHA that authored reportin specifications in the PHA system (or its intermediary).</t>
-  </si>
-  <si>
-    <t>RR.authoringAgency.address</t>
-  </si>
-  <si>
-    <t>PlanDefinition.contact.extension.id</t>
-  </si>
-  <si>
-    <t>PlanDefinition.contact.extension.extension</t>
-  </si>
-  <si>
-    <t>PlanDefinition.contact.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://fhir.hl7.org/us/ecr/StructureDefinition/extension-contact-address"/&gt;</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>PlanDefinition.contact.extension.valueAddress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address
-</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>PlanDefinition.contact.name</t>
-  </si>
-  <si>
-    <t>Name of an individual to contact</t>
-  </si>
-  <si>
-    <t>The name of an individual to contact.</t>
-  </si>
-  <si>
-    <t>If there is no named individual, the telecom information is for the organization as a whole.</t>
-  </si>
-  <si>
-    <t>ContactDetail.name</t>
-  </si>
-  <si>
-    <t>PlanDefinition.contact.telecom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ContactPoint
-</t>
-  </si>
-  <si>
-    <t>Contact details for individual or organization</t>
-  </si>
-  <si>
-    <t>The contact details for the individual (if a name was provided) or the organization.</t>
-  </si>
-  <si>
-    <t>ContactDetail.telecom</t>
   </si>
   <si>
     <t>PlanDefinition.copyright</t>
@@ -1014,7 +890,19 @@
     <t>PlanDefinition.relatedArtifact.id</t>
   </si>
   <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>PlanDefinition.relatedArtifact.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>resourceCategory</t>
@@ -1042,16 +930,37 @@
     <t>PlanDefinition.relatedArtifact.extension.url</t>
   </si>
   <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
     <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://fhir.hl7.org/us/ecr/StructureDefinition/extension-rel-artifact-category"/&gt;</t>
   </si>
   <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
     <t>PlanDefinition.relatedArtifact.extension.valueCode</t>
   </si>
   <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
+  </si>
+  <si>
     <t>Type/category of one or more external resources</t>
   </si>
   <si>
-    <t>ValueSet/ext-resource-category</t>
+    <t>http://fhir.hl7.org/us/ecr/ValueSet/ext-resource-category</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
   </si>
   <si>
     <t>priority</t>
@@ -1076,7 +985,7 @@
     <t>Priority given to one or more external resources</t>
   </si>
   <si>
-    <t>ValueSet/ext-resource-priority</t>
+    <t>http://fhir.hl7.org/us/ecr/ValueSet/rr-priority</t>
   </si>
   <si>
     <t>PlanDefinition.relatedArtifact.type</t>
@@ -1088,7 +997,7 @@
     <t>The type of relationship to the related artifact.</t>
   </si>
   <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="doucmentation"/&gt;</t>
+    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="documentation"/&gt;</t>
   </si>
   <si>
     <t>The type of relationship to the related artifact</t>
@@ -2369,7 +2278,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO159"/>
+  <dimension ref="A1:AO149"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2379,7 +2288,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="51.953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="20.9140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="19.3515625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="40.90625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
@@ -2402,7 +2311,7 @@
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="85.25390625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="55.1015625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="56.9609375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="43.0625" customWidth="true" bestFit="true"/>
@@ -2413,7 +2322,7 @@
     <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="38.63671875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="31.45703125" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="50.1953125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="22.0078125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="43.69921875" customWidth="true" bestFit="true"/>
@@ -5048,13 +4957,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="B24" t="s" s="2">
         <v>193</v>
       </c>
+      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
         <v>41</v>
       </c>
@@ -5066,7 +4973,7 @@
         <v>50</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>41</v>
@@ -5105,7 +5012,7 @@
         <v>41</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>41</v>
+        <v>197</v>
       </c>
       <c r="W24" t="s" s="2">
         <v>41</v>
@@ -5132,22 +5039,22 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>190</v>
+        <v>41</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>191</v>
+        <v>41</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>197</v>
+        <v>41</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>41</v>
@@ -5164,7 +5071,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5184,18 +5091,20 @@
         <v>41</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>41</v>
@@ -5217,7 +5126,7 @@
         <v>41</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>202</v>
+        <v>41</v>
       </c>
       <c r="W25" t="s" s="2">
         <v>41</v>
@@ -5244,7 +5153,7 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -5262,7 +5171,7 @@
         <v>41</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>41</v>
@@ -5276,7 +5185,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5296,10 +5205,10 @@
         <v>41</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>206</v>
@@ -5358,7 +5267,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -5379,10 +5288,10 @@
         <v>209</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>41</v>
+        <v>210</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>41</v>
@@ -5390,7 +5299,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5413,17 +5322,15 @@
         <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>205</v>
+        <v>121</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M27" t="s" s="2">
         <v>213</v>
       </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>41</v>
@@ -5472,7 +5379,7 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -5490,13 +5397,13 @@
         <v>41</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>214</v>
+        <v>41</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>215</v>
+        <v>41</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>41</v>
@@ -5504,7 +5411,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5527,15 +5434,17 @@
         <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>121</v>
+        <v>215</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>41</v>
@@ -5584,7 +5493,7 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -5602,13 +5511,13 @@
         <v>41</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>41</v>
+        <v>219</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>41</v>
@@ -5616,7 +5525,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5639,7 +5548,7 @@
         <v>41</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>221</v>
@@ -5650,7 +5559,9 @@
       <c r="M29" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="N29" s="2"/>
+      <c r="N29" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>41</v>
       </c>
@@ -5698,7 +5609,7 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -5716,7 +5627,7 @@
         <v>41</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>41</v>
@@ -5730,7 +5641,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5750,22 +5661,22 @@
         <v>41</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>41</v>
@@ -5814,7 +5725,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -5832,7 +5743,7 @@
         <v>41</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>41</v>
@@ -5846,7 +5757,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5857,7 +5768,7 @@
         <v>42</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>41</v>
@@ -5869,19 +5780,19 @@
         <v>51</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>41</v>
@@ -5930,13 +5841,13 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>41</v>
@@ -5948,13 +5859,13 @@
         <v>41</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>41</v>
@@ -5962,7 +5873,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5985,20 +5896,18 @@
         <v>51</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>239</v>
+        <v>138</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N32" t="s" s="2">
         <v>243</v>
       </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>41</v>
       </c>
@@ -6022,13 +5931,13 @@
         <v>41</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>41</v>
+        <v>244</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>41</v>
+        <v>245</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>41</v>
@@ -6046,7 +5955,7 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -6064,7 +5973,7 @@
         <v>41</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>41</v>
@@ -6078,7 +5987,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6098,21 +6007,21 @@
         <v>41</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>138</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>41</v>
       </c>
@@ -6136,13 +6045,13 @@
         <v>41</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>73</v>
+        <v>251</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>41</v>
@@ -6160,7 +6069,7 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -6178,7 +6087,7 @@
         <v>41</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>41</v>
@@ -6192,7 +6101,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6215,17 +6124,17 @@
         <v>41</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>138</v>
+        <v>256</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>41</v>
@@ -6250,13 +6159,13 @@
         <v>41</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>256</v>
+        <v>41</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>257</v>
+        <v>41</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>258</v>
+        <v>41</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>41</v>
@@ -6274,7 +6183,7 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -6292,7 +6201,7 @@
         <v>41</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>259</v>
+        <v>41</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>41</v>
@@ -6326,7 +6235,7 @@
         <v>41</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>261</v>
@@ -6337,10 +6246,10 @@
       <c r="L35" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="M35" s="2"/>
-      <c r="N35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>264</v>
       </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>41</v>
       </c>
@@ -6406,7 +6315,7 @@
         <v>41</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>41</v>
@@ -6418,43 +6327,43 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>41</v>
+        <v>267</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>266</v>
+        <v>200</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M36" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="N36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>41</v>
       </c>
@@ -6502,13 +6411,13 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>41</v>
@@ -6517,7 +6426,7 @@
         <v>41</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>270</v>
+        <v>41</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>271</v>
@@ -6526,13 +6435,13 @@
         <v>41</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
         <v>272</v>
       </c>
@@ -6545,10 +6454,10 @@
         <v>42</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>41</v>
@@ -6557,16 +6466,20 @@
         <v>41</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>121</v>
+        <v>273</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>177</v>
+        <v>274</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>41</v>
       </c>
@@ -6614,13 +6527,13 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>179</v>
+        <v>272</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>41</v>
@@ -6629,7 +6542,7 @@
         <v>41</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>41</v>
+        <v>278</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>41</v>
@@ -6641,23 +6554,23 @@
         <v>41</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>274</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>41</v>
@@ -6669,17 +6582,15 @@
         <v>41</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>97</v>
+        <v>177</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>41</v>
@@ -6716,25 +6627,25 @@
         <v>41</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>183</v>
+        <v>41</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>277</v>
+        <v>41</v>
       </c>
       <c r="AC38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>184</v>
+        <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>41</v>
@@ -6755,28 +6666,26 @@
         <v>41</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>274</v>
+        <v>281</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>41</v>
@@ -6785,15 +6694,17 @@
         <v>41</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>279</v>
+        <v>96</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>280</v>
+        <v>97</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>41</v>
@@ -6830,16 +6741,16 @@
         <v>41</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>41</v>
+        <v>183</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="AC39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>41</v>
+        <v>184</v>
       </c>
       <c r="AE39" t="s" s="2">
         <v>185</v>
@@ -6857,26 +6768,28 @@
         <v>41</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AK39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" hidden="true">
-      <c r="A40" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="B40" s="2"/>
+      <c r="B40" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="C40" t="s" s="2">
         <v>41</v>
       </c>
@@ -6888,7 +6801,7 @@
         <v>50</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>41</v>
@@ -6897,13 +6810,13 @@
         <v>41</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>121</v>
+        <v>286</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>177</v>
+        <v>287</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6954,13 +6867,13 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>41</v>
@@ -6969,7 +6882,7 @@
         <v>41</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>41</v>
+        <v>289</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>41</v>
@@ -6981,23 +6894,23 @@
         <v>41</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>274</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>41</v>
@@ -7009,17 +6922,15 @@
         <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>97</v>
+        <v>177</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>41</v>
@@ -7056,25 +6967,25 @@
         <v>41</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>183</v>
+        <v>41</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>277</v>
+        <v>41</v>
       </c>
       <c r="AC41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>184</v>
+        <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>41</v>
@@ -7095,23 +7006,23 @@
         <v>41</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>274</v>
+        <v>281</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>41</v>
@@ -7123,16 +7034,16 @@
         <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>286</v>
+        <v>97</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>288</v>
+        <v>99</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7140,7 +7051,7 @@
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>289</v>
+        <v>41</v>
       </c>
       <c r="R42" t="s" s="2">
         <v>41</v>
@@ -7170,25 +7081,25 @@
         <v>41</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>41</v>
+        <v>183</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>41</v>
+        <v>184</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>290</v>
+        <v>185</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>41</v>
@@ -7209,12 +7120,12 @@
         <v>41</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>93</v>
+        <v>281</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7222,7 +7133,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>50</v>
@@ -7237,7 +7148,7 @@
         <v>41</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>292</v>
+        <v>63</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>293</v>
@@ -7245,14 +7156,16 @@
       <c r="L43" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="M43" s="2"/>
+      <c r="M43" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>41</v>
+        <v>296</v>
       </c>
       <c r="R43" t="s" s="2">
         <v>41</v>
@@ -7294,10 +7207,10 @@
         <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>50</v>
@@ -7326,7 +7239,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7346,20 +7259,18 @@
         <v>41</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>41</v>
@@ -7384,13 +7295,13 @@
         <v>41</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>41</v>
+        <v>301</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>41</v>
+        <v>302</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>41</v>
@@ -7408,7 +7319,7 @@
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -7435,14 +7346,16 @@
         <v>41</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>41</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="B45" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="C45" t="s" s="2">
         <v>41</v>
       </c>
@@ -7451,25 +7364,25 @@
         <v>42</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7520,7 +7433,7 @@
         <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>305</v>
+        <v>185</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -7535,7 +7448,7 @@
         <v>41</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>41</v>
+        <v>308</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>41</v>
@@ -7552,11 +7465,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>307</v>
+        <v>41</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7575,18 +7488,16 @@
         <v>41</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>205</v>
+        <v>121</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>308</v>
+        <v>177</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="M46" s="2"/>
-      <c r="N46" t="s" s="2">
-        <v>310</v>
-      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>41</v>
       </c>
@@ -7634,7 +7545,7 @@
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>306</v>
+        <v>179</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -7652,25 +7563,25 @@
         <v>41</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>311</v>
+        <v>41</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>41</v>
+        <v>281</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7680,7 +7591,7 @@
         <v>43</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>41</v>
@@ -7689,20 +7600,18 @@
         <v>41</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>313</v>
+        <v>96</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>314</v>
+        <v>97</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>41</v>
       </c>
@@ -7738,19 +7647,19 @@
         <v>41</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>41</v>
+        <v>183</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>41</v>
+        <v>184</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>312</v>
+        <v>185</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -7765,7 +7674,7 @@
         <v>41</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>318</v>
+        <v>41</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>41</v>
@@ -7777,12 +7686,12 @@
         <v>41</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>41</v>
+        <v>281</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7790,7 +7699,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>50</v>
@@ -7805,22 +7714,24 @@
         <v>41</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>177</v>
+        <v>293</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>41</v>
+        <v>309</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>41</v>
@@ -7862,10 +7773,10 @@
         <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>179</v>
+        <v>297</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>50</v>
@@ -7889,23 +7800,23 @@
         <v>41</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>274</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>41</v>
@@ -7917,17 +7828,15 @@
         <v>41</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>97</v>
+        <v>299</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>41</v>
@@ -7952,37 +7861,37 @@
         <v>41</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>41</v>
+        <v>310</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>41</v>
+        <v>311</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>183</v>
+        <v>41</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>277</v>
+        <v>41</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>184</v>
+        <v>41</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>185</v>
+        <v>303</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>41</v>
@@ -8003,22 +7912,20 @@
         <v>41</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>274</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>50</v>
@@ -8030,16 +7937,16 @@
         <v>41</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>322</v>
+        <v>69</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -8048,7 +7955,7 @@
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>41</v>
+        <v>315</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>41</v>
@@ -8066,13 +7973,13 @@
         <v>41</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>41</v>
+        <v>316</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>41</v>
+        <v>317</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>41</v>
@@ -8090,13 +7997,13 @@
         <v>41</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>185</v>
+        <v>318</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>41</v>
@@ -8105,7 +8012,7 @@
         <v>41</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>325</v>
+        <v>41</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>41</v>
@@ -8120,9 +8027,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8136,22 +8043,22 @@
         <v>50</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>121</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>177</v>
+        <v>320</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>273</v>
+        <v>321</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -8202,7 +8109,7 @@
         <v>41</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>179</v>
+        <v>322</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -8217,7 +8124,7 @@
         <v>41</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>41</v>
+        <v>323</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>41</v>
@@ -8229,23 +8136,23 @@
         <v>41</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>274</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>41</v>
@@ -8254,19 +8161,19 @@
         <v>41</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>97</v>
+        <v>325</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>276</v>
+        <v>326</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>99</v>
+        <v>327</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -8304,25 +8211,25 @@
         <v>41</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>183</v>
+        <v>41</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>277</v>
+        <v>41</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>184</v>
+        <v>41</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>185</v>
+        <v>328</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>41</v>
@@ -8343,12 +8250,12 @@
         <v>41</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>274</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8356,31 +8263,31 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>63</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>286</v>
+        <v>330</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>287</v>
+        <v>331</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>288</v>
+        <v>332</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8388,7 +8295,7 @@
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>329</v>
+        <v>41</v>
       </c>
       <c r="R53" t="s" s="2">
         <v>41</v>
@@ -8430,10 +8337,10 @@
         <v>41</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>290</v>
+        <v>333</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>50</v>
@@ -8445,7 +8352,7 @@
         <v>41</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>41</v>
+        <v>334</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>41</v>
@@ -8457,12 +8364,12 @@
         <v>41</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>93</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8482,16 +8389,16 @@
         <v>41</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>69</v>
+        <v>336</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>293</v>
+        <v>337</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8518,13 +8425,13 @@
         <v>41</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>331</v>
+        <v>41</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>332</v>
+        <v>41</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>41</v>
@@ -8542,7 +8449,7 @@
         <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -8569,16 +8476,14 @@
         <v>41</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>93</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
         <v>41</v>
       </c>
@@ -8590,24 +8495,26 @@
         <v>50</v>
       </c>
       <c r="G55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I55" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="J55" t="s" s="2">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>41</v>
@@ -8656,13 +8563,13 @@
         <v>41</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>185</v>
+        <v>345</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>41</v>
@@ -8671,7 +8578,7 @@
         <v>41</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>337</v>
+        <v>41</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>41</v>
@@ -8688,7 +8595,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8699,7 +8606,7 @@
         <v>42</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>41</v>
@@ -8711,13 +8618,13 @@
         <v>41</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>121</v>
+        <v>347</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>177</v>
+        <v>348</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>273</v>
+        <v>349</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8768,13 +8675,13 @@
         <v>41</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>179</v>
+        <v>346</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>41</v>
@@ -8795,16 +8702,16 @@
         <v>41</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>274</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>327</v>
+        <v>350</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8823,18 +8730,18 @@
         <v>41</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>96</v>
+        <v>351</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>97</v>
+        <v>352</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>41</v>
       </c>
@@ -8870,19 +8777,19 @@
         <v>41</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>183</v>
+        <v>41</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>277</v>
+        <v>41</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>184</v>
+        <v>41</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>185</v>
+        <v>350</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -8894,7 +8801,7 @@
         <v>41</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>41</v>
+        <v>355</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>41</v>
@@ -8909,12 +8816,12 @@
         <v>41</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>274</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>328</v>
+        <v>356</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8922,7 +8829,7 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>50</v>
@@ -8937,24 +8844,22 @@
         <v>41</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>286</v>
+        <v>177</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
-        <v>338</v>
+        <v>41</v>
       </c>
       <c r="R58" t="s" s="2">
         <v>41</v>
@@ -8996,10 +8901,10 @@
         <v>41</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>290</v>
+        <v>179</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>50</v>
@@ -9023,23 +8928,23 @@
         <v>41</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>93</v>
+        <v>281</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>41</v>
@@ -9051,15 +8956,17 @@
         <v>41</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>293</v>
+        <v>97</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>41</v>
@@ -9084,13 +8991,13 @@
         <v>41</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>339</v>
+        <v>41</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>340</v>
+        <v>41</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>41</v>
@@ -9108,13 +9015,13 @@
         <v>41</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>295</v>
+        <v>185</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>41</v>
@@ -9135,50 +9042,52 @@
         <v>41</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>93</v>
+        <v>281</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>41</v>
+        <v>359</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H60" t="s" s="2">
         <v>51</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>41</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>342</v>
+        <v>102</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="M60" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
-        <v>344</v>
+        <v>41</v>
       </c>
       <c r="R60" t="s" s="2">
         <v>41</v>
@@ -9196,13 +9105,13 @@
         <v>41</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>345</v>
+        <v>41</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>346</v>
+        <v>41</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>41</v>
@@ -9220,13 +9129,13 @@
         <v>41</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>41</v>
@@ -9247,12 +9156,12 @@
         <v>41</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>41</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9266,22 +9175,22 @@
         <v>50</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9308,13 +9217,13 @@
         <v>41</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>41</v>
+        <v>251</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>41</v>
+        <v>365</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>41</v>
+        <v>366</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>41</v>
@@ -9332,7 +9241,7 @@
         <v>41</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
@@ -9347,7 +9256,7 @@
         <v>41</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>352</v>
+        <v>41</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>41</v>
@@ -9364,7 +9273,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9372,7 +9281,7 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>50</v>
@@ -9384,19 +9293,19 @@
         <v>41</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9422,13 +9331,13 @@
         <v>41</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>41</v>
+        <v>251</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>41</v>
+        <v>371</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>41</v>
+        <v>372</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>41</v>
@@ -9446,10 +9355,10 @@
         <v>41</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>50</v>
@@ -9476,9 +9385,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9492,26 +9401,24 @@
         <v>50</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>63</v>
+        <v>138</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>41</v>
@@ -9536,13 +9443,13 @@
         <v>41</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>41</v>
+        <v>376</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>41</v>
+        <v>377</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>41</v>
+        <v>378</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>41</v>
@@ -9560,7 +9467,7 @@
         <v>41</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
@@ -9575,7 +9482,7 @@
         <v>41</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>363</v>
+        <v>41</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>41</v>
@@ -9592,7 +9499,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9612,16 +9519,16 @@
         <v>41</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>365</v>
+        <v>138</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9648,13 +9555,13 @@
         <v>41</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>41</v>
+        <v>251</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>41</v>
+        <v>382</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>41</v>
+        <v>383</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>41</v>
@@ -9672,7 +9579,7 @@
         <v>41</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
@@ -9704,7 +9611,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9715,7 +9622,7 @@
         <v>42</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>41</v>
@@ -9724,20 +9631,18 @@
         <v>41</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>370</v>
+        <v>138</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>41</v>
@@ -9762,13 +9667,13 @@
         <v>41</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>41</v>
+        <v>251</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>41</v>
+        <v>387</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>41</v>
+        <v>388</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>41</v>
@@ -9786,13 +9691,13 @@
         <v>41</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>41</v>
@@ -9818,7 +9723,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9841,13 +9746,13 @@
         <v>41</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>376</v>
+        <v>273</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9898,7 +9803,7 @@
         <v>41</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
@@ -9930,7 +9835,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9953,18 +9858,16 @@
         <v>41</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>380</v>
+        <v>351</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="M67" s="2"/>
-      <c r="N67" t="s" s="2">
-        <v>383</v>
-      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>41</v>
       </c>
@@ -10012,7 +9915,7 @@
         <v>41</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
@@ -10024,7 +9927,7 @@
         <v>41</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>384</v>
+        <v>355</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>41</v>
@@ -10044,7 +9947,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10073,7 +9976,7 @@
         <v>177</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -10151,12 +10054,12 @@
         <v>41</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>274</v>
+        <v>281</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10185,7 +10088,7 @@
         <v>97</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="M69" t="s" s="2">
         <v>99</v>
@@ -10265,16 +10168,16 @@
         <v>41</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>274</v>
+        <v>281</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>388</v>
+        <v>359</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -10299,7 +10202,7 @@
         <v>102</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>389</v>
+        <v>360</v>
       </c>
       <c r="M70" t="s" s="2">
         <v>99</v>
@@ -10352,7 +10255,7 @@
         <v>41</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>390</v>
+        <v>361</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
@@ -10384,7 +10287,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10410,10 +10313,10 @@
         <v>138</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10440,13 +10343,13 @@
         <v>41</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>41</v>
@@ -10464,7 +10367,7 @@
         <v>41</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
@@ -10496,7 +10399,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10504,7 +10407,7 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F72" t="s" s="2">
         <v>50</v>
@@ -10519,17 +10422,15 @@
         <v>41</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>138</v>
+        <v>404</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>399</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>41</v>
@@ -10554,13 +10455,13 @@
         <v>41</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>256</v>
+        <v>41</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>400</v>
+        <v>41</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>401</v>
+        <v>41</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>41</v>
@@ -10578,10 +10479,10 @@
         <v>41</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>50</v>
@@ -10610,7 +10511,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10633,13 +10534,13 @@
         <v>41</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>138</v>
+        <v>408</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10666,31 +10567,31 @@
         <v>41</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>405</v>
+        <v>41</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>406</v>
+        <v>41</v>
       </c>
       <c r="Y73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE73" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>42</v>
@@ -10722,7 +10623,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10733,7 +10634,7 @@
         <v>42</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>41</v>
@@ -10745,13 +10646,13 @@
         <v>41</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>138</v>
+        <v>351</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10778,49 +10679,49 @@
         <v>41</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>256</v>
+        <v>41</v>
       </c>
       <c r="X74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE74" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="Y74" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>408</v>
-      </c>
       <c r="AF74" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>41</v>
+        <v>355</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>41</v>
+        <v>414</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>41</v>
@@ -10834,7 +10735,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10845,7 +10746,7 @@
         <v>42</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>41</v>
@@ -10857,13 +10758,13 @@
         <v>41</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>414</v>
+        <v>177</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>415</v>
+        <v>280</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10890,13 +10791,13 @@
         <v>41</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>256</v>
+        <v>41</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>416</v>
+        <v>41</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>417</v>
+        <v>41</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>41</v>
@@ -10914,13 +10815,13 @@
         <v>41</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>413</v>
+        <v>179</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>41</v>
@@ -10941,16 +10842,16 @@
         <v>41</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>41</v>
+        <v>281</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10969,15 +10870,17 @@
         <v>41</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>313</v>
+        <v>96</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>419</v>
+        <v>97</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="M76" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>41</v>
@@ -11026,7 +10929,7 @@
         <v>41</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>418</v>
+        <v>185</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>42</v>
@@ -11053,16 +10956,16 @@
         <v>41</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>41</v>
+        <v>281</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>41</v>
+        <v>359</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -11075,21 +10978,23 @@
         <v>41</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>380</v>
+        <v>96</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>422</v>
+        <v>102</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="M77" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>41</v>
@@ -11138,7 +11043,7 @@
         <v>41</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>421</v>
+        <v>361</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>42</v>
@@ -11150,7 +11055,7 @@
         <v>41</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>384</v>
+        <v>41</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>41</v>
@@ -11165,12 +11070,12 @@
         <v>41</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>41</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11196,10 +11101,10 @@
         <v>121</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>177</v>
+        <v>419</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>273</v>
+        <v>420</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -11250,7 +11155,7 @@
         <v>41</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>179</v>
+        <v>418</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>42</v>
@@ -11277,23 +11182,23 @@
         <v>41</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>274</v>
+        <v>41</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>41</v>
@@ -11305,17 +11210,15 @@
         <v>41</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>97</v>
+        <v>422</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>41</v>
@@ -11364,13 +11267,13 @@
         <v>41</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>185</v>
+        <v>421</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>41</v>
@@ -11382,7 +11285,7 @@
         <v>41</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>41</v>
+        <v>136</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>41</v>
@@ -11391,45 +11294,43 @@
         <v>41</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>274</v>
+        <v>41</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>388</v>
+        <v>41</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>102</v>
+        <v>425</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="M80" s="2"/>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>41</v>
@@ -11478,13 +11379,13 @@
         <v>41</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>390</v>
+        <v>424</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>41</v>
@@ -11496,7 +11397,7 @@
         <v>41</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>41</v>
@@ -11505,7 +11406,7 @@
         <v>41</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>93</v>
+        <v>41</v>
       </c>
     </row>
     <row r="81" hidden="true">
@@ -11533,7 +11434,7 @@
         <v>41</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="K81" t="s" s="2">
         <v>428</v>
@@ -11566,13 +11467,13 @@
         <v>41</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>256</v>
+        <v>41</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>430</v>
+        <v>41</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>431</v>
+        <v>41</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>41</v>
@@ -11608,7 +11509,7 @@
         <v>41</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>41</v>
@@ -11622,7 +11523,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11633,7 +11534,7 @@
         <v>42</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>41</v>
@@ -11645,13 +11546,13 @@
         <v>41</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>433</v>
+        <v>138</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11702,13 +11603,13 @@
         <v>41</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>41</v>
@@ -11734,7 +11635,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11745,7 +11646,7 @@
         <v>42</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>41</v>
@@ -11757,15 +11658,17 @@
         <v>41</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>437</v>
+        <v>138</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="M83" s="2"/>
+        <v>435</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>436</v>
+      </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>41</v>
@@ -11814,13 +11717,13 @@
         <v>41</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>41</v>
@@ -11846,7 +11749,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11869,13 +11772,13 @@
         <v>41</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>380</v>
+        <v>273</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -11926,7 +11829,7 @@
         <v>41</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>42</v>
@@ -11938,13 +11841,13 @@
         <v>41</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>384</v>
+        <v>41</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>443</v>
+        <v>41</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>41</v>
@@ -11958,7 +11861,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11969,7 +11872,7 @@
         <v>42</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>41</v>
@@ -11981,13 +11884,13 @@
         <v>41</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>177</v>
+        <v>441</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>273</v>
+        <v>442</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -12038,13 +11941,13 @@
         <v>41</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>179</v>
+        <v>440</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>41</v>
@@ -12065,16 +11968,16 @@
         <v>41</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>274</v>
+        <v>41</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -12093,17 +11996,15 @@
         <v>41</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>96</v>
+        <v>444</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>97</v>
+        <v>445</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="M86" s="2"/>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>41</v>
@@ -12152,7 +12053,7 @@
         <v>41</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>185</v>
+        <v>443</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>42</v>
@@ -12179,16 +12080,16 @@
         <v>41</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>274</v>
+        <v>41</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>388</v>
+        <v>41</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -12201,23 +12102,21 @@
         <v>41</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>96</v>
+        <v>351</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>102</v>
+        <v>448</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>41</v>
@@ -12266,7 +12165,7 @@
         <v>41</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>390</v>
+        <v>447</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>42</v>
@@ -12278,7 +12177,7 @@
         <v>41</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>41</v>
+        <v>355</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>41</v>
@@ -12293,12 +12192,12 @@
         <v>41</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>93</v>
+        <v>41</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12324,10 +12223,10 @@
         <v>121</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>448</v>
+        <v>177</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>449</v>
+        <v>280</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12378,7 +12277,7 @@
         <v>41</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>447</v>
+        <v>179</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>42</v>
@@ -12405,23 +12304,23 @@
         <v>41</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>41</v>
+        <v>281</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>41</v>
@@ -12433,15 +12332,17 @@
         <v>41</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>451</v>
+        <v>97</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="M89" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>41</v>
@@ -12490,13 +12391,13 @@
         <v>41</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>450</v>
+        <v>185</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>41</v>
@@ -12508,7 +12409,7 @@
         <v>41</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>41</v>
@@ -12517,43 +12418,45 @@
         <v>41</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>41</v>
+        <v>281</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>41</v>
+        <v>359</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>454</v>
+        <v>102</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="M90" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>41</v>
@@ -12602,13 +12505,13 @@
         <v>41</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>453</v>
+        <v>361</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>41</v>
@@ -12620,7 +12523,7 @@
         <v>41</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>209</v>
+        <v>41</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>41</v>
@@ -12629,12 +12532,12 @@
         <v>41</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>41</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12642,7 +12545,7 @@
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F91" t="s" s="2">
         <v>50</v>
@@ -12657,15 +12560,17 @@
         <v>41</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="M91" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>41</v>
@@ -12690,13 +12595,13 @@
         <v>41</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>41</v>
+        <v>457</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>41</v>
+        <v>458</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>41</v>
@@ -12714,10 +12619,10 @@
         <v>41</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>50</v>
@@ -12732,7 +12637,7 @@
         <v>41</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>209</v>
+        <v>41</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>41</v>
@@ -12757,7 +12662,7 @@
         <v>42</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>41</v>
@@ -12769,7 +12674,7 @@
         <v>41</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="K92" t="s" s="2">
         <v>460</v>
@@ -12832,7 +12737,7 @@
         <v>42</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>41</v>
@@ -12869,7 +12774,7 @@
         <v>42</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>41</v>
@@ -12881,7 +12786,7 @@
         <v>41</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="K93" t="s" s="2">
         <v>463</v>
@@ -12889,9 +12794,7 @@
       <c r="L93" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="M93" t="s" s="2">
-        <v>465</v>
-      </c>
+      <c r="M93" s="2"/>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>41</v>
@@ -12946,7 +12849,7 @@
         <v>42</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>41</v>
@@ -12972,7 +12875,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12983,7 +12886,7 @@
         <v>42</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>41</v>
@@ -12995,15 +12898,17 @@
         <v>41</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>313</v>
+        <v>121</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="L94" t="s" s="2">
+      <c r="M94" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="M94" s="2"/>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>41</v>
@@ -13052,13 +12957,13 @@
         <v>41</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>41</v>
@@ -13107,13 +13012,13 @@
         <v>41</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>52</v>
+        <v>470</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -13196,7 +13101,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13219,7 +13124,7 @@
         <v>41</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="K96" t="s" s="2">
         <v>474</v>
@@ -13276,7 +13181,7 @@
         <v>41</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>42</v>
@@ -13331,7 +13236,7 @@
         <v>41</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>380</v>
+        <v>351</v>
       </c>
       <c r="K97" t="s" s="2">
         <v>477</v>
@@ -13339,7 +13244,9 @@
       <c r="L97" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="M97" s="2"/>
+      <c r="M97" t="s" s="2">
+        <v>479</v>
+      </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
         <v>41</v>
@@ -13400,7 +13307,7 @@
         <v>41</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>384</v>
+        <v>355</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>41</v>
@@ -13420,7 +13327,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13449,7 +13356,7 @@
         <v>177</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -13527,12 +13434,12 @@
         <v>41</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>274</v>
+        <v>281</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13561,7 +13468,7 @@
         <v>97</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="M99" t="s" s="2">
         <v>99</v>
@@ -13641,16 +13548,16 @@
         <v>41</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>274</v>
+        <v>281</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>388</v>
+        <v>359</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -13675,7 +13582,7 @@
         <v>102</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>389</v>
+        <v>360</v>
       </c>
       <c r="M100" t="s" s="2">
         <v>99</v>
@@ -13728,7 +13635,7 @@
         <v>41</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>390</v>
+        <v>361</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>42</v>
@@ -13760,7 +13667,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13783,17 +13690,15 @@
         <v>41</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="M101" t="s" s="2">
         <v>485</v>
       </c>
+      <c r="M101" s="2"/>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
         <v>41</v>
@@ -13818,13 +13723,13 @@
         <v>41</v>
       </c>
       <c r="W101" t="s" s="2">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>486</v>
+        <v>41</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>487</v>
+        <v>41</v>
       </c>
       <c r="Z101" t="s" s="2">
         <v>41</v>
@@ -13842,7 +13747,7 @@
         <v>41</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>50</v>
@@ -13874,7 +13779,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13882,7 +13787,7 @@
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F102" t="s" s="2">
         <v>50</v>
@@ -13897,13 +13802,13 @@
         <v>41</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -13930,13 +13835,13 @@
         <v>41</v>
       </c>
       <c r="W102" t="s" s="2">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>41</v>
+        <v>489</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>41</v>
+        <v>490</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>41</v>
@@ -13954,10 +13859,10 @@
         <v>41</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>50</v>
@@ -14009,13 +13914,13 @@
         <v>41</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>121</v>
+        <v>492</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -14096,9 +14001,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="104" hidden="true">
+    <row r="104">
       <c r="A104" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14112,7 +14017,7 @@
         <v>50</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>41</v>
@@ -14121,17 +14026,15 @@
         <v>41</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>121</v>
+        <v>496</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>497</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="M104" s="2"/>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
         <v>41</v>
@@ -14180,7 +14083,7 @@
         <v>41</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>42</v>
@@ -14212,7 +14115,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14223,7 +14126,7 @@
         <v>42</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>41</v>
@@ -14235,13 +14138,13 @@
         <v>41</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>499</v>
+        <v>121</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>500</v>
+        <v>177</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>501</v>
+        <v>280</v>
       </c>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
@@ -14292,13 +14195,13 @@
         <v>41</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>498</v>
+        <v>179</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>41</v>
@@ -14319,16 +14222,16 @@
         <v>41</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>41</v>
+        <v>281</v>
       </c>
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
@@ -14347,15 +14250,17 @@
         <v>41</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>499</v>
+        <v>96</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>503</v>
+        <v>97</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="M106" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
         <v>41</v>
@@ -14392,19 +14297,19 @@
         <v>41</v>
       </c>
       <c r="AA106" t="s" s="2">
-        <v>41</v>
+        <v>183</v>
       </c>
       <c r="AB106" t="s" s="2">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="AC106" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD106" t="s" s="2">
-        <v>41</v>
+        <v>184</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>502</v>
+        <v>185</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>42</v>
@@ -14431,12 +14336,12 @@
         <v>41</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>41</v>
+        <v>281</v>
       </c>
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14456,21 +14361,21 @@
         <v>41</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>380</v>
+        <v>162</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="N107" s="2"/>
+        <v>503</v>
+      </c>
+      <c r="M107" s="2"/>
+      <c r="N107" t="s" s="2">
+        <v>504</v>
+      </c>
       <c r="O107" t="s" s="2">
         <v>41</v>
       </c>
@@ -14530,7 +14435,7 @@
         <v>41</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>384</v>
+        <v>41</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>41</v>
@@ -14545,12 +14450,12 @@
         <v>41</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>41</v>
+        <v>506</v>
       </c>
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14570,19 +14475,21 @@
         <v>41</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>121</v>
+        <v>508</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>177</v>
+        <v>509</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>273</v>
+        <v>510</v>
       </c>
       <c r="M108" s="2"/>
-      <c r="N108" s="2"/>
+      <c r="N108" t="s" s="2">
+        <v>511</v>
+      </c>
       <c r="O108" t="s" s="2">
         <v>41</v>
       </c>
@@ -14630,7 +14537,7 @@
         <v>41</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>179</v>
+        <v>512</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>42</v>
@@ -14642,7 +14549,7 @@
         <v>41</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>41</v>
+        <v>513</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>41</v>
@@ -14657,23 +14564,23 @@
         <v>41</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>274</v>
+        <v>514</v>
       </c>
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F109" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>41</v>
@@ -14685,17 +14592,15 @@
         <v>41</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>97</v>
+        <v>177</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="M109" s="2"/>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
         <v>41</v>
@@ -14744,13 +14649,13 @@
         <v>41</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>41</v>
@@ -14771,16 +14676,16 @@
         <v>41</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>274</v>
+        <v>281</v>
       </c>
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
-        <v>388</v>
+        <v>95</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
@@ -14793,19 +14698,19 @@
         <v>41</v>
       </c>
       <c r="H110" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I110" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J110" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>389</v>
+        <v>283</v>
       </c>
       <c r="M110" t="s" s="2">
         <v>99</v>
@@ -14846,19 +14751,19 @@
         <v>41</v>
       </c>
       <c r="AA110" t="s" s="2">
-        <v>41</v>
+        <v>183</v>
       </c>
       <c r="AB110" t="s" s="2">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="AC110" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD110" t="s" s="2">
-        <v>41</v>
+        <v>184</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>390</v>
+        <v>185</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>42</v>
@@ -14885,12 +14790,12 @@
         <v>41</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>93</v>
+        <v>281</v>
       </c>
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14898,7 +14803,7 @@
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F111" t="s" s="2">
         <v>50</v>
@@ -14910,16 +14815,16 @@
         <v>41</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>52</v>
+        <v>518</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -14970,10 +14875,10 @@
         <v>41</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>50</v>
@@ -14997,12 +14902,12 @@
         <v>41</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>41</v>
+        <v>522</v>
       </c>
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15010,7 +14915,7 @@
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F112" t="s" s="2">
         <v>50</v>
@@ -15022,19 +14927,23 @@
         <v>41</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>69</v>
+        <v>524</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="M112" s="2"/>
-      <c r="N112" s="2"/>
+        <v>526</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>528</v>
+      </c>
       <c r="O112" t="s" s="2">
         <v>41</v>
       </c>
@@ -15058,13 +14967,13 @@
         <v>41</v>
       </c>
       <c r="W112" t="s" s="2">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>518</v>
+        <v>41</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>519</v>
+        <v>41</v>
       </c>
       <c r="Z112" t="s" s="2">
         <v>41</v>
@@ -15082,10 +14991,10 @@
         <v>41</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>50</v>
@@ -15109,12 +15018,12 @@
         <v>41</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>41</v>
+        <v>530</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15134,16 +15043,16 @@
         <v>41</v>
       </c>
       <c r="I113" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -15194,7 +15103,7 @@
         <v>41</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>520</v>
+        <v>534</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>42</v>
@@ -15221,12 +15130,12 @@
         <v>41</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>41</v>
+        <v>530</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15240,25 +15149,29 @@
         <v>50</v>
       </c>
       <c r="G114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I114" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I114" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="J114" t="s" s="2">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>526</v>
+        <v>537</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="M114" s="2"/>
-      <c r="N114" s="2"/>
+        <v>538</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="N114" t="s" s="2">
+        <v>540</v>
+      </c>
       <c r="O114" t="s" s="2">
         <v>41</v>
       </c>
@@ -15306,7 +15219,7 @@
         <v>41</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>524</v>
+        <v>541</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>42</v>
@@ -15333,12 +15246,12 @@
         <v>41</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>41</v>
+        <v>542</v>
       </c>
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>528</v>
+        <v>543</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15358,19 +15271,23 @@
         <v>41</v>
       </c>
       <c r="I115" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>121</v>
+        <v>536</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>177</v>
+        <v>544</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M115" s="2"/>
-      <c r="N115" s="2"/>
+        <v>545</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="N115" t="s" s="2">
+        <v>540</v>
+      </c>
       <c r="O115" t="s" s="2">
         <v>41</v>
       </c>
@@ -15418,7 +15335,7 @@
         <v>41</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>179</v>
+        <v>546</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>42</v>
@@ -15445,23 +15362,23 @@
         <v>41</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>274</v>
+        <v>542</v>
       </c>
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>529</v>
+        <v>547</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F116" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G116" t="s" s="2">
         <v>41</v>
@@ -15470,20 +15387,18 @@
         <v>41</v>
       </c>
       <c r="I116" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>97</v>
+        <v>548</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>549</v>
+      </c>
+      <c r="M116" s="2"/>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
         <v>41</v>
@@ -15508,37 +15423,37 @@
         <v>41</v>
       </c>
       <c r="W116" t="s" s="2">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>41</v>
+        <v>550</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>41</v>
+        <v>551</v>
       </c>
       <c r="Z116" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA116" t="s" s="2">
-        <v>183</v>
+        <v>41</v>
       </c>
       <c r="AB116" t="s" s="2">
-        <v>277</v>
+        <v>41</v>
       </c>
       <c r="AC116" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD116" t="s" s="2">
-        <v>184</v>
+        <v>41</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>185</v>
+        <v>552</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>41</v>
@@ -15559,12 +15474,12 @@
         <v>41</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>274</v>
+        <v>553</v>
       </c>
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>530</v>
+        <v>554</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -15575,7 +15490,7 @@
         <v>42</v>
       </c>
       <c r="F117" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>41</v>
@@ -15587,20 +15502,18 @@
         <v>51</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>162</v>
+        <v>524</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>531</v>
+        <v>555</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>532</v>
+        <v>556</v>
       </c>
       <c r="M117" s="2"/>
-      <c r="N117" t="s" s="2">
-        <v>533</v>
-      </c>
+      <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
-        <v>41</v>
+        <v>557</v>
       </c>
       <c r="P117" s="2"/>
       <c r="Q117" t="s" s="2">
@@ -15646,13 +15559,13 @@
         <v>41</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>534</v>
+        <v>558</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>41</v>
@@ -15673,12 +15586,12 @@
         <v>41</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>535</v>
+        <v>542</v>
       </c>
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>536</v>
+        <v>559</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -15701,18 +15614,16 @@
         <v>51</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>538</v>
+        <v>560</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>539</v>
+        <v>561</v>
       </c>
       <c r="M118" s="2"/>
-      <c r="N118" t="s" s="2">
-        <v>540</v>
-      </c>
+      <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
         <v>41</v>
       </c>
@@ -15760,7 +15671,7 @@
         <v>41</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>541</v>
+        <v>562</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>42</v>
@@ -15772,27 +15683,27 @@
         <v>41</v>
       </c>
       <c r="AI118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN118" t="s" s="2">
         <v>542</v>
-      </c>
-      <c r="AJ118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN118" t="s" s="2">
-        <v>543</v>
       </c>
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>544</v>
+        <v>563</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -15812,16 +15723,16 @@
         <v>41</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>121</v>
+        <v>536</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>177</v>
+        <v>555</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>273</v>
+        <v>564</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -15872,7 +15783,7 @@
         <v>41</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>179</v>
+        <v>565</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>42</v>
@@ -15899,23 +15810,23 @@
         <v>41</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>274</v>
+        <v>542</v>
       </c>
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>545</v>
+        <v>566</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G120" t="s" s="2">
         <v>41</v>
@@ -15924,20 +15835,18 @@
         <v>41</v>
       </c>
       <c r="I120" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>96</v>
+        <v>536</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>97</v>
+        <v>567</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="M120" s="2"/>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
         <v>41</v>
@@ -15974,25 +15883,25 @@
         <v>41</v>
       </c>
       <c r="AA120" t="s" s="2">
-        <v>183</v>
+        <v>41</v>
       </c>
       <c r="AB120" t="s" s="2">
-        <v>277</v>
+        <v>41</v>
       </c>
       <c r="AC120" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD120" t="s" s="2">
-        <v>184</v>
+        <v>41</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>185</v>
+        <v>569</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>41</v>
@@ -16013,12 +15922,12 @@
         <v>41</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>274</v>
+        <v>542</v>
       </c>
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>546</v>
+        <v>570</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16041,13 +15950,13 @@
         <v>51</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>547</v>
+        <v>69</v>
       </c>
       <c r="K121" t="s" s="2">
         <v>548</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>549</v>
+        <v>571</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
@@ -16074,13 +15983,13 @@
         <v>41</v>
       </c>
       <c r="W121" t="s" s="2">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>41</v>
+        <v>550</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>41</v>
+        <v>551</v>
       </c>
       <c r="Z121" t="s" s="2">
         <v>41</v>
@@ -16098,7 +16007,7 @@
         <v>41</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>550</v>
+        <v>572</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>42</v>
@@ -16125,12 +16034,12 @@
         <v>41</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>552</v>
+        <v>573</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16141,7 +16050,7 @@
         <v>42</v>
       </c>
       <c r="F122" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G122" t="s" s="2">
         <v>41</v>
@@ -16153,20 +16062,18 @@
         <v>51</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>553</v>
+        <v>69</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>554</v>
+        <v>574</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>555</v>
+        <v>575</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>557</v>
-      </c>
+        <v>576</v>
+      </c>
+      <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
         <v>41</v>
       </c>
@@ -16190,13 +16097,11 @@
         <v>41</v>
       </c>
       <c r="W122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X122" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="X122" s="2"/>
       <c r="Y122" t="s" s="2">
-        <v>41</v>
+        <v>577</v>
       </c>
       <c r="Z122" t="s" s="2">
         <v>41</v>
@@ -16214,13 +16119,13 @@
         <v>41</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>558</v>
+        <v>578</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH122" t="s" s="2">
         <v>41</v>
@@ -16241,12 +16146,12 @@
         <v>41</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>559</v>
+        <v>281</v>
       </c>
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>560</v>
+        <v>579</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16257,7 +16162,7 @@
         <v>42</v>
       </c>
       <c r="F123" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G123" t="s" s="2">
         <v>41</v>
@@ -16269,15 +16174,17 @@
         <v>51</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>553</v>
+        <v>580</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>561</v>
+        <v>581</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="M123" s="2"/>
+        <v>582</v>
+      </c>
+      <c r="M123" t="s" s="2">
+        <v>583</v>
+      </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
         <v>41</v>
@@ -16326,13 +16233,13 @@
         <v>41</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>563</v>
+        <v>584</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>41</v>
@@ -16353,12 +16260,12 @@
         <v>41</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>559</v>
+        <v>281</v>
       </c>
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>564</v>
+        <v>585</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16369,7 +16276,7 @@
         <v>42</v>
       </c>
       <c r="F124" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G124" t="s" s="2">
         <v>41</v>
@@ -16381,19 +16288,19 @@
         <v>51</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>565</v>
+        <v>69</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>566</v>
+        <v>586</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>567</v>
+        <v>587</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>568</v>
+        <v>588</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>569</v>
+        <v>589</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>41</v>
@@ -16418,13 +16325,13 @@
         <v>41</v>
       </c>
       <c r="W124" t="s" s="2">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>41</v>
+        <v>590</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>41</v>
+        <v>591</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>41</v>
@@ -16442,13 +16349,13 @@
         <v>41</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>570</v>
+        <v>592</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>41</v>
@@ -16469,12 +16376,12 @@
         <v>41</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>571</v>
+        <v>593</v>
       </c>
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>572</v>
+        <v>594</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16497,20 +16404,16 @@
         <v>51</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>565</v>
+        <v>595</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>573</v>
+        <v>596</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>569</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="M125" s="2"/>
+      <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
         <v>41</v>
       </c>
@@ -16558,7 +16461,7 @@
         <v>41</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>575</v>
+        <v>598</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>42</v>
@@ -16585,12 +16488,12 @@
         <v>41</v>
       </c>
       <c r="AN125" t="s" s="2">
-        <v>571</v>
+        <v>599</v>
       </c>
     </row>
-    <row r="126" hidden="true">
+    <row r="126">
       <c r="A126" t="s" s="2">
-        <v>576</v>
+        <v>600</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -16598,13 +16501,13 @@
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F126" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G126" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H126" t="s" s="2">
         <v>41</v>
@@ -16613,15 +16516,17 @@
         <v>51</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>577</v>
+        <v>601</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="M126" s="2"/>
+        <v>602</v>
+      </c>
+      <c r="M126" t="s" s="2">
+        <v>603</v>
+      </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
         <v>41</v>
@@ -16646,13 +16551,13 @@
         <v>41</v>
       </c>
       <c r="W126" t="s" s="2">
-        <v>147</v>
+        <v>73</v>
       </c>
       <c r="X126" t="s" s="2">
-        <v>579</v>
+        <v>604</v>
       </c>
       <c r="Y126" t="s" s="2">
-        <v>580</v>
+        <v>605</v>
       </c>
       <c r="Z126" t="s" s="2">
         <v>41</v>
@@ -16670,7 +16575,7 @@
         <v>41</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>581</v>
+        <v>606</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>42</v>
@@ -16685,7 +16590,7 @@
         <v>41</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>41</v>
+        <v>607</v>
       </c>
       <c r="AK126" t="s" s="2">
         <v>41</v>
@@ -16697,12 +16602,12 @@
         <v>41</v>
       </c>
       <c r="AN126" t="s" s="2">
-        <v>582</v>
+        <v>608</v>
       </c>
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>583</v>
+        <v>609</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -16713,7 +16618,7 @@
         <v>42</v>
       </c>
       <c r="F127" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G127" t="s" s="2">
         <v>41</v>
@@ -16722,21 +16627,21 @@
         <v>41</v>
       </c>
       <c r="I127" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>553</v>
+        <v>351</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>584</v>
+        <v>610</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>585</v>
+        <v>611</v>
       </c>
       <c r="M127" s="2"/>
       <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
-        <v>586</v>
+        <v>41</v>
       </c>
       <c r="P127" s="2"/>
       <c r="Q127" t="s" s="2">
@@ -16782,19 +16687,19 @@
         <v>41</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>587</v>
+        <v>609</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>41</v>
+        <v>355</v>
       </c>
       <c r="AJ127" t="s" s="2">
         <v>41</v>
@@ -16809,12 +16714,12 @@
         <v>41</v>
       </c>
       <c r="AN127" t="s" s="2">
-        <v>571</v>
+        <v>41</v>
       </c>
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>588</v>
+        <v>612</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -16834,16 +16739,16 @@
         <v>41</v>
       </c>
       <c r="I128" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>553</v>
+        <v>121</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>589</v>
+        <v>177</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>590</v>
+        <v>280</v>
       </c>
       <c r="M128" s="2"/>
       <c r="N128" s="2"/>
@@ -16894,7 +16799,7 @@
         <v>41</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>591</v>
+        <v>179</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>42</v>
@@ -16921,23 +16826,23 @@
         <v>41</v>
       </c>
       <c r="AN128" t="s" s="2">
-        <v>571</v>
+        <v>281</v>
       </c>
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>592</v>
+        <v>613</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F129" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G129" t="s" s="2">
         <v>41</v>
@@ -16946,18 +16851,20 @@
         <v>41</v>
       </c>
       <c r="I129" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>565</v>
+        <v>96</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>584</v>
+        <v>97</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="M129" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="M129" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
         <v>41</v>
@@ -17006,13 +16913,13 @@
         <v>41</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>594</v>
+        <v>185</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>41</v>
@@ -17033,43 +16940,45 @@
         <v>41</v>
       </c>
       <c r="AN129" t="s" s="2">
-        <v>571</v>
+        <v>281</v>
       </c>
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>595</v>
+        <v>614</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
-        <v>41</v>
+        <v>359</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F130" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G130" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H130" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I130" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>565</v>
+        <v>96</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>596</v>
+        <v>102</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="M130" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="M130" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="N130" s="2"/>
       <c r="O130" t="s" s="2">
         <v>41</v>
@@ -17118,13 +17027,13 @@
         <v>41</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>598</v>
+        <v>361</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>41</v>
@@ -17145,12 +17054,12 @@
         <v>41</v>
       </c>
       <c r="AN130" t="s" s="2">
-        <v>571</v>
+        <v>93</v>
       </c>
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -17158,7 +17067,7 @@
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F131" t="s" s="2">
         <v>50</v>
@@ -17170,16 +17079,16 @@
         <v>41</v>
       </c>
       <c r="I131" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J131" t="s" s="2">
         <v>69</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>577</v>
+        <v>616</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>600</v>
+        <v>617</v>
       </c>
       <c r="M131" s="2"/>
       <c r="N131" s="2"/>
@@ -17209,10 +17118,10 @@
         <v>147</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>579</v>
+        <v>618</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>580</v>
+        <v>619</v>
       </c>
       <c r="Z131" t="s" s="2">
         <v>41</v>
@@ -17230,10 +17139,10 @@
         <v>41</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>601</v>
+        <v>615</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>50</v>
@@ -17257,12 +17166,12 @@
         <v>41</v>
       </c>
       <c r="AN131" t="s" s="2">
-        <v>582</v>
+        <v>41</v>
       </c>
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>602</v>
+        <v>620</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -17273,7 +17182,7 @@
         <v>42</v>
       </c>
       <c r="F132" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>41</v>
@@ -17282,20 +17191,18 @@
         <v>41</v>
       </c>
       <c r="I132" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>603</v>
+        <v>621</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>605</v>
-      </c>
+        <v>622</v>
+      </c>
+      <c r="M132" s="2"/>
       <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
         <v>41</v>
@@ -17320,11 +17227,13 @@
         <v>41</v>
       </c>
       <c r="W132" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="X132" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="X132" t="s" s="2">
+        <v>623</v>
+      </c>
       <c r="Y132" t="s" s="2">
-        <v>606</v>
+        <v>624</v>
       </c>
       <c r="Z132" t="s" s="2">
         <v>41</v>
@@ -17342,13 +17251,13 @@
         <v>41</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>607</v>
+        <v>620</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>41</v>
@@ -17369,12 +17278,12 @@
         <v>41</v>
       </c>
       <c r="AN132" t="s" s="2">
-        <v>274</v>
+        <v>41</v>
       </c>
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>608</v>
+        <v>625</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -17385,7 +17294,7 @@
         <v>42</v>
       </c>
       <c r="F133" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G133" t="s" s="2">
         <v>41</v>
@@ -17394,20 +17303,18 @@
         <v>41</v>
       </c>
       <c r="I133" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>609</v>
+        <v>626</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>610</v>
+        <v>627</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="M133" t="s" s="2">
-        <v>612</v>
-      </c>
+        <v>628</v>
+      </c>
+      <c r="M133" s="2"/>
       <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
         <v>41</v>
@@ -17432,13 +17339,13 @@
         <v>41</v>
       </c>
       <c r="W133" t="s" s="2">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="X133" t="s" s="2">
-        <v>41</v>
+        <v>629</v>
       </c>
       <c r="Y133" t="s" s="2">
-        <v>41</v>
+        <v>630</v>
       </c>
       <c r="Z133" t="s" s="2">
         <v>41</v>
@@ -17456,13 +17363,13 @@
         <v>41</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>41</v>
@@ -17483,12 +17390,12 @@
         <v>41</v>
       </c>
       <c r="AN133" t="s" s="2">
-        <v>274</v>
+        <v>41</v>
       </c>
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>614</v>
+        <v>631</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17499,7 +17406,7 @@
         <v>42</v>
       </c>
       <c r="F134" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G134" t="s" s="2">
         <v>41</v>
@@ -17508,23 +17415,19 @@
         <v>41</v>
       </c>
       <c r="I134" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J134" t="s" s="2">
         <v>69</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>615</v>
+        <v>632</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="M134" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="N134" t="s" s="2">
-        <v>618</v>
-      </c>
+        <v>633</v>
+      </c>
+      <c r="M134" s="2"/>
+      <c r="N134" s="2"/>
       <c r="O134" t="s" s="2">
         <v>41</v>
       </c>
@@ -17551,10 +17454,10 @@
         <v>147</v>
       </c>
       <c r="X134" t="s" s="2">
-        <v>619</v>
+        <v>634</v>
       </c>
       <c r="Y134" t="s" s="2">
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="Z134" t="s" s="2">
         <v>41</v>
@@ -17572,13 +17475,13 @@
         <v>41</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>621</v>
+        <v>631</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>41</v>
@@ -17599,12 +17502,12 @@
         <v>41</v>
       </c>
       <c r="AN134" t="s" s="2">
-        <v>622</v>
+        <v>41</v>
       </c>
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>623</v>
+        <v>636</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -17624,16 +17527,16 @@
         <v>41</v>
       </c>
       <c r="I135" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>624</v>
+        <v>69</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>625</v>
+        <v>637</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="M135" s="2"/>
       <c r="N135" s="2"/>
@@ -17660,13 +17563,13 @@
         <v>41</v>
       </c>
       <c r="W135" t="s" s="2">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="X135" t="s" s="2">
-        <v>41</v>
+        <v>639</v>
       </c>
       <c r="Y135" t="s" s="2">
-        <v>41</v>
+        <v>640</v>
       </c>
       <c r="Z135" t="s" s="2">
         <v>41</v>
@@ -17684,7 +17587,7 @@
         <v>41</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>42</v>
@@ -17711,12 +17614,12 @@
         <v>41</v>
       </c>
       <c r="AN135" t="s" s="2">
-        <v>628</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>629</v>
+        <v>641</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -17724,32 +17627,30 @@
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F136" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G136" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H136" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I136" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>630</v>
+        <v>642</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="M136" t="s" s="2">
-        <v>632</v>
-      </c>
+        <v>643</v>
+      </c>
+      <c r="M136" s="2"/>
       <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
         <v>41</v>
@@ -17774,13 +17675,13 @@
         <v>41</v>
       </c>
       <c r="W136" t="s" s="2">
-        <v>73</v>
+        <v>147</v>
       </c>
       <c r="X136" t="s" s="2">
-        <v>633</v>
+        <v>644</v>
       </c>
       <c r="Y136" t="s" s="2">
-        <v>634</v>
+        <v>645</v>
       </c>
       <c r="Z136" t="s" s="2">
         <v>41</v>
@@ -17798,7 +17699,7 @@
         <v>41</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>42</v>
@@ -17813,7 +17714,7 @@
         <v>41</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>636</v>
+        <v>41</v>
       </c>
       <c r="AK136" t="s" s="2">
         <v>41</v>
@@ -17825,12 +17726,12 @@
         <v>41</v>
       </c>
       <c r="AN136" t="s" s="2">
-        <v>637</v>
+        <v>41</v>
       </c>
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>638</v>
+        <v>646</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -17841,7 +17742,7 @@
         <v>42</v>
       </c>
       <c r="F137" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G137" t="s" s="2">
         <v>41</v>
@@ -17853,13 +17754,13 @@
         <v>41</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>380</v>
+        <v>69</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="M137" s="2"/>
       <c r="N137" s="2"/>
@@ -17886,13 +17787,13 @@
         <v>41</v>
       </c>
       <c r="W137" t="s" s="2">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="X137" t="s" s="2">
-        <v>41</v>
+        <v>649</v>
       </c>
       <c r="Y137" t="s" s="2">
-        <v>41</v>
+        <v>650</v>
       </c>
       <c r="Z137" t="s" s="2">
         <v>41</v>
@@ -17910,19 +17811,19 @@
         <v>41</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>638</v>
+        <v>646</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>384</v>
+        <v>41</v>
       </c>
       <c r="AJ137" t="s" s="2">
         <v>41</v>
@@ -17942,7 +17843,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>641</v>
+        <v>651</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -17965,13 +17866,13 @@
         <v>41</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>177</v>
+        <v>652</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>273</v>
+        <v>653</v>
       </c>
       <c r="M138" s="2"/>
       <c r="N138" s="2"/>
@@ -17998,13 +17899,13 @@
         <v>41</v>
       </c>
       <c r="W138" t="s" s="2">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="X138" t="s" s="2">
-        <v>41</v>
+        <v>654</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>41</v>
+        <v>655</v>
       </c>
       <c r="Z138" t="s" s="2">
         <v>41</v>
@@ -18022,7 +17923,7 @@
         <v>41</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>179</v>
+        <v>651</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>42</v>
@@ -18049,23 +17950,23 @@
         <v>41</v>
       </c>
       <c r="AN138" t="s" s="2">
-        <v>274</v>
+        <v>41</v>
       </c>
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>642</v>
+        <v>656</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F139" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G139" t="s" s="2">
         <v>41</v>
@@ -18077,16 +17978,16 @@
         <v>41</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>96</v>
+        <v>657</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>97</v>
+        <v>658</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>276</v>
+        <v>659</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>99</v>
+        <v>660</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
@@ -18136,13 +18037,13 @@
         <v>41</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>185</v>
+        <v>656</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>41</v>
@@ -18154,7 +18055,7 @@
         <v>41</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>41</v>
+        <v>661</v>
       </c>
       <c r="AL139" t="s" s="2">
         <v>41</v>
@@ -18163,45 +18064,43 @@
         <v>41</v>
       </c>
       <c r="AN139" t="s" s="2">
-        <v>274</v>
+        <v>41</v>
       </c>
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>643</v>
+        <v>662</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
-        <v>388</v>
+        <v>41</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F140" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G140" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H140" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I140" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>96</v>
+        <v>663</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>102</v>
+        <v>664</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="M140" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="M140" s="2"/>
       <c r="N140" s="2"/>
       <c r="O140" t="s" s="2">
         <v>41</v>
@@ -18250,13 +18149,13 @@
         <v>41</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>390</v>
+        <v>662</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>41</v>
@@ -18277,12 +18176,12 @@
         <v>41</v>
       </c>
       <c r="AN140" t="s" s="2">
-        <v>93</v>
+        <v>41</v>
       </c>
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>644</v>
+        <v>666</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -18290,10 +18189,10 @@
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F141" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G141" t="s" s="2">
         <v>41</v>
@@ -18305,13 +18204,13 @@
         <v>41</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>69</v>
+        <v>351</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
@@ -18338,13 +18237,13 @@
         <v>41</v>
       </c>
       <c r="W141" t="s" s="2">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="X141" t="s" s="2">
-        <v>647</v>
+        <v>41</v>
       </c>
       <c r="Y141" t="s" s="2">
-        <v>648</v>
+        <v>41</v>
       </c>
       <c r="Z141" t="s" s="2">
         <v>41</v>
@@ -18362,19 +18261,19 @@
         <v>41</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>644</v>
+        <v>666</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI141" t="s" s="2">
-        <v>41</v>
+        <v>355</v>
       </c>
       <c r="AJ141" t="s" s="2">
         <v>41</v>
@@ -18394,7 +18293,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>649</v>
+        <v>669</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -18417,13 +18316,13 @@
         <v>41</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>650</v>
+        <v>177</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>651</v>
+        <v>280</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" s="2"/>
@@ -18450,13 +18349,13 @@
         <v>41</v>
       </c>
       <c r="W142" t="s" s="2">
-        <v>256</v>
+        <v>41</v>
       </c>
       <c r="X142" t="s" s="2">
-        <v>652</v>
+        <v>41</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>653</v>
+        <v>41</v>
       </c>
       <c r="Z142" t="s" s="2">
         <v>41</v>
@@ -18474,7 +18373,7 @@
         <v>41</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>649</v>
+        <v>179</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>42</v>
@@ -18501,23 +18400,23 @@
         <v>41</v>
       </c>
       <c r="AN142" t="s" s="2">
-        <v>41</v>
+        <v>281</v>
       </c>
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>654</v>
+        <v>670</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F143" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G143" t="s" s="2">
         <v>41</v>
@@ -18529,15 +18428,17 @@
         <v>41</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>655</v>
+        <v>96</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>656</v>
+        <v>97</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="M143" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="M143" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="N143" s="2"/>
       <c r="O143" t="s" s="2">
         <v>41</v>
@@ -18562,13 +18463,13 @@
         <v>41</v>
       </c>
       <c r="W143" t="s" s="2">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="X143" t="s" s="2">
-        <v>658</v>
+        <v>41</v>
       </c>
       <c r="Y143" t="s" s="2">
-        <v>659</v>
+        <v>41</v>
       </c>
       <c r="Z143" t="s" s="2">
         <v>41</v>
@@ -18586,13 +18487,13 @@
         <v>41</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>654</v>
+        <v>185</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>41</v>
@@ -18613,43 +18514,45 @@
         <v>41</v>
       </c>
       <c r="AN143" t="s" s="2">
-        <v>41</v>
+        <v>281</v>
       </c>
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>660</v>
+        <v>671</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
-        <v>41</v>
+        <v>359</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F144" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G144" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H144" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I144" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>661</v>
+        <v>102</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="M144" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="M144" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="N144" s="2"/>
       <c r="O144" t="s" s="2">
         <v>41</v>
@@ -18674,13 +18577,13 @@
         <v>41</v>
       </c>
       <c r="W144" t="s" s="2">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="X144" t="s" s="2">
-        <v>663</v>
+        <v>41</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>664</v>
+        <v>41</v>
       </c>
       <c r="Z144" t="s" s="2">
         <v>41</v>
@@ -18698,13 +18601,13 @@
         <v>41</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>660</v>
+        <v>361</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>41</v>
@@ -18725,12 +18628,12 @@
         <v>41</v>
       </c>
       <c r="AN144" t="s" s="2">
-        <v>41</v>
+        <v>93</v>
       </c>
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -18753,13 +18656,13 @@
         <v>41</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="M145" s="2"/>
       <c r="N145" s="2"/>
@@ -18786,13 +18689,13 @@
         <v>41</v>
       </c>
       <c r="W145" t="s" s="2">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="X145" t="s" s="2">
-        <v>668</v>
+        <v>41</v>
       </c>
       <c r="Y145" t="s" s="2">
-        <v>669</v>
+        <v>41</v>
       </c>
       <c r="Z145" t="s" s="2">
         <v>41</v>
@@ -18810,7 +18713,7 @@
         <v>41</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>42</v>
@@ -18842,7 +18745,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -18865,13 +18768,13 @@
         <v>41</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="M146" s="2"/>
       <c r="N146" s="2"/>
@@ -18898,13 +18801,13 @@
         <v>41</v>
       </c>
       <c r="W146" t="s" s="2">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="X146" t="s" s="2">
-        <v>673</v>
+        <v>41</v>
       </c>
       <c r="Y146" t="s" s="2">
-        <v>674</v>
+        <v>41</v>
       </c>
       <c r="Z146" t="s" s="2">
         <v>41</v>
@@ -18922,7 +18825,7 @@
         <v>41</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>42</v>
@@ -18954,7 +18857,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -18977,13 +18880,13 @@
         <v>41</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>676</v>
+        <v>463</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>677</v>
+        <v>464</v>
       </c>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
@@ -19010,31 +18913,31 @@
         <v>41</v>
       </c>
       <c r="W147" t="s" s="2">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="X147" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y147" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z147" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA147" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB147" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC147" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD147" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE147" t="s" s="2">
         <v>678</v>
-      </c>
-      <c r="Y147" t="s" s="2">
-        <v>679</v>
-      </c>
-      <c r="Z147" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA147" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB147" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC147" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD147" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE147" t="s" s="2">
-        <v>675</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>42</v>
@@ -19066,7 +18969,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -19089,15 +18992,17 @@
         <v>41</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="K148" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="L148" t="s" s="2">
         <v>681</v>
       </c>
-      <c r="L148" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="M148" s="2"/>
+      <c r="M148" t="s" s="2">
+        <v>468</v>
+      </c>
       <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
         <v>41</v>
@@ -19122,13 +19027,13 @@
         <v>41</v>
       </c>
       <c r="W148" t="s" s="2">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="X148" t="s" s="2">
-        <v>683</v>
+        <v>41</v>
       </c>
       <c r="Y148" t="s" s="2">
-        <v>684</v>
+        <v>41</v>
       </c>
       <c r="Z148" t="s" s="2">
         <v>41</v>
@@ -19146,7 +19051,7 @@
         <v>41</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>42</v>
@@ -19178,7 +19083,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -19189,7 +19094,7 @@
         <v>42</v>
       </c>
       <c r="F149" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G149" t="s" s="2">
         <v>41</v>
@@ -19201,17 +19106,15 @@
         <v>41</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>686</v>
+        <v>41</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>688</v>
-      </c>
-      <c r="M149" t="s" s="2">
-        <v>689</v>
-      </c>
+        <v>684</v>
+      </c>
+      <c r="M149" s="2"/>
       <c r="N149" s="2"/>
       <c r="O149" t="s" s="2">
         <v>41</v>
@@ -19260,26 +19163,26 @@
         <v>41</v>
       </c>
       <c r="AE149" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="AF149" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG149" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH149" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI149" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ149" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK149" t="s" s="2">
         <v>685</v>
       </c>
-      <c r="AF149" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG149" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH149" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI149" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ149" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK149" t="s" s="2">
-        <v>690</v>
-      </c>
       <c r="AL149" t="s" s="2">
         <v>41</v>
       </c>
@@ -19287,1137 +19190,11 @@
         <v>41</v>
       </c>
       <c r="AN149" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="150" hidden="true">
-      <c r="A150" t="s" s="2">
-        <v>691</v>
-      </c>
-      <c r="B150" s="2"/>
-      <c r="C150" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D150" s="2"/>
-      <c r="E150" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F150" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G150" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H150" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I150" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J150" t="s" s="2">
-        <v>692</v>
-      </c>
-      <c r="K150" t="s" s="2">
-        <v>693</v>
-      </c>
-      <c r="L150" t="s" s="2">
-        <v>694</v>
-      </c>
-      <c r="M150" s="2"/>
-      <c r="N150" s="2"/>
-      <c r="O150" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P150" s="2"/>
-      <c r="Q150" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R150" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S150" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T150" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U150" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V150" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W150" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X150" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y150" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z150" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA150" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB150" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC150" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD150" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE150" t="s" s="2">
-        <v>691</v>
-      </c>
-      <c r="AF150" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG150" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH150" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI150" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ150" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK150" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL150" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM150" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN150" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="151" hidden="true">
-      <c r="A151" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="B151" s="2"/>
-      <c r="C151" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D151" s="2"/>
-      <c r="E151" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F151" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G151" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H151" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I151" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J151" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="K151" t="s" s="2">
-        <v>696</v>
-      </c>
-      <c r="L151" t="s" s="2">
-        <v>697</v>
-      </c>
-      <c r="M151" s="2"/>
-      <c r="N151" s="2"/>
-      <c r="O151" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P151" s="2"/>
-      <c r="Q151" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R151" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S151" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T151" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U151" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V151" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W151" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X151" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y151" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z151" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA151" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB151" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC151" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD151" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE151" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="AF151" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG151" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH151" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI151" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AJ151" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK151" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL151" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM151" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN151" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="152" hidden="true">
-      <c r="A152" t="s" s="2">
-        <v>698</v>
-      </c>
-      <c r="B152" s="2"/>
-      <c r="C152" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D152" s="2"/>
-      <c r="E152" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F152" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G152" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H152" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I152" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J152" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="K152" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="L152" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M152" s="2"/>
-      <c r="N152" s="2"/>
-      <c r="O152" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P152" s="2"/>
-      <c r="Q152" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R152" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S152" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T152" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U152" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V152" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W152" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X152" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y152" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z152" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA152" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB152" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC152" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD152" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE152" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AF152" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG152" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH152" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI152" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ152" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK152" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL152" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM152" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN152" t="s" s="2">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="153" hidden="true">
-      <c r="A153" t="s" s="2">
-        <v>699</v>
-      </c>
-      <c r="B153" s="2"/>
-      <c r="C153" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="D153" s="2"/>
-      <c r="E153" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F153" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G153" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H153" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I153" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J153" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K153" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="L153" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M153" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N153" s="2"/>
-      <c r="O153" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P153" s="2"/>
-      <c r="Q153" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R153" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S153" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T153" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U153" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V153" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W153" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X153" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y153" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z153" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA153" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB153" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC153" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD153" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE153" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AF153" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG153" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH153" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI153" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ153" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK153" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL153" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM153" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN153" t="s" s="2">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="154" hidden="true">
-      <c r="A154" t="s" s="2">
-        <v>700</v>
-      </c>
-      <c r="B154" s="2"/>
-      <c r="C154" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="D154" s="2"/>
-      <c r="E154" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F154" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G154" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H154" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="I154" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J154" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K154" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L154" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="M154" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N154" s="2"/>
-      <c r="O154" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P154" s="2"/>
-      <c r="Q154" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R154" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S154" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T154" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U154" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V154" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W154" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X154" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y154" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z154" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA154" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB154" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC154" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD154" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE154" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AF154" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG154" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH154" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI154" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ154" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK154" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL154" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM154" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN154" t="s" s="2">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="155" hidden="true">
-      <c r="A155" t="s" s="2">
-        <v>701</v>
-      </c>
-      <c r="B155" s="2"/>
-      <c r="C155" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D155" s="2"/>
-      <c r="E155" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F155" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G155" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H155" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I155" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J155" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="K155" t="s" s="2">
-        <v>702</v>
-      </c>
-      <c r="L155" t="s" s="2">
-        <v>703</v>
-      </c>
-      <c r="M155" s="2"/>
-      <c r="N155" s="2"/>
-      <c r="O155" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P155" s="2"/>
-      <c r="Q155" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R155" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S155" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T155" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U155" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V155" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W155" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X155" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y155" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z155" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA155" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB155" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC155" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD155" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE155" t="s" s="2">
-        <v>701</v>
-      </c>
-      <c r="AF155" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG155" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH155" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI155" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ155" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK155" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL155" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM155" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN155" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="156" hidden="true">
-      <c r="A156" t="s" s="2">
-        <v>704</v>
-      </c>
-      <c r="B156" s="2"/>
-      <c r="C156" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D156" s="2"/>
-      <c r="E156" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F156" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G156" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H156" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I156" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J156" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="K156" t="s" s="2">
-        <v>705</v>
-      </c>
-      <c r="L156" t="s" s="2">
-        <v>706</v>
-      </c>
-      <c r="M156" s="2"/>
-      <c r="N156" s="2"/>
-      <c r="O156" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P156" s="2"/>
-      <c r="Q156" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R156" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S156" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T156" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U156" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V156" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W156" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X156" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y156" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z156" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA156" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB156" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC156" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD156" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE156" t="s" s="2">
-        <v>704</v>
-      </c>
-      <c r="AF156" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG156" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH156" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI156" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ156" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK156" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL156" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM156" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN156" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="157" hidden="true">
-      <c r="A157" t="s" s="2">
-        <v>707</v>
-      </c>
-      <c r="B157" s="2"/>
-      <c r="C157" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D157" s="2"/>
-      <c r="E157" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F157" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G157" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H157" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I157" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J157" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="K157" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="L157" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="M157" s="2"/>
-      <c r="N157" s="2"/>
-      <c r="O157" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P157" s="2"/>
-      <c r="Q157" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R157" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S157" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T157" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U157" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V157" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W157" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X157" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y157" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z157" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA157" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB157" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC157" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD157" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE157" t="s" s="2">
-        <v>707</v>
-      </c>
-      <c r="AF157" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG157" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH157" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI157" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ157" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK157" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL157" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM157" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN157" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="158" hidden="true">
-      <c r="A158" t="s" s="2">
-        <v>708</v>
-      </c>
-      <c r="B158" s="2"/>
-      <c r="C158" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D158" s="2"/>
-      <c r="E158" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F158" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G158" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H158" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I158" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J158" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="K158" t="s" s="2">
-        <v>709</v>
-      </c>
-      <c r="L158" t="s" s="2">
-        <v>710</v>
-      </c>
-      <c r="M158" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="N158" s="2"/>
-      <c r="O158" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P158" s="2"/>
-      <c r="Q158" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R158" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S158" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T158" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U158" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V158" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W158" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X158" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y158" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z158" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA158" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB158" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC158" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD158" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE158" t="s" s="2">
-        <v>708</v>
-      </c>
-      <c r="AF158" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG158" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH158" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI158" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ158" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK158" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL158" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM158" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN158" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="159" hidden="true">
-      <c r="A159" t="s" s="2">
-        <v>711</v>
-      </c>
-      <c r="B159" s="2"/>
-      <c r="C159" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D159" s="2"/>
-      <c r="E159" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F159" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G159" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H159" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I159" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J159" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="K159" t="s" s="2">
-        <v>712</v>
-      </c>
-      <c r="L159" t="s" s="2">
-        <v>713</v>
-      </c>
-      <c r="M159" s="2"/>
-      <c r="N159" s="2"/>
-      <c r="O159" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P159" s="2"/>
-      <c r="Q159" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R159" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S159" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T159" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U159" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V159" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W159" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X159" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y159" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z159" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA159" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB159" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC159" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD159" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE159" t="s" s="2">
-        <v>711</v>
-      </c>
-      <c r="AF159" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG159" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH159" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI159" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ159" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK159" t="s" s="2">
-        <v>714</v>
-      </c>
-      <c r="AL159" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM159" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN159" t="s" s="2">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN159">
+  <autoFilter ref="A1:AN149">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -20427,7 +19204,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI158">
+  <conditionalFormatting sqref="A2:AI148">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/rr-plandefinition.xlsx
+++ b/docs/rr-plandefinition.xlsx
@@ -10621,7 +10621,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
         <v>411</v>
       </c>
@@ -10637,7 +10637,7 @@
         <v>43</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>41</v>
